--- a/Excel Data/DevopsTC_customerCorporate.xlsx
+++ b/Excel Data/DevopsTC_customerCorporate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti4\IdeaProjects\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="241">
   <si>
     <t>SECTOR</t>
   </si>
@@ -738,6 +738,15 @@
   </si>
   <si>
     <t>TC</t>
+  </si>
+  <si>
+    <t>CRP.TYPE</t>
+  </si>
+  <si>
+    <t>DELIVERY.WDRAW</t>
+  </si>
+  <si>
+    <t>ID.NUMBER</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC37"/>
+  <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1162,7 @@
     <col min="53" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
@@ -1313,8 +1322,17 @@
       <c r="BA1" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="BB1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1332,7 +1350,9 @@
       <c r="G2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6">
+        <v>20491231</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>175</v>
       </c>
@@ -1446,8 +1466,17 @@
         <v>19980101</v>
       </c>
       <c r="BA2" s="5"/>
+      <c r="BB2" s="1">
+        <v>11</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>31</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>42309978</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1469,7 +1498,9 @@
       <c r="G3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6">
+        <v>20491231</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>187</v>
       </c>
@@ -1586,7 +1617,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1719,7 +1750,7 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1846,7 +1877,7 @@
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1991,7 +2022,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2124,7 +2155,7 @@
       <c r="AZ7" s="5"/>
       <c r="BA7" s="5"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2263,7 +2294,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2396,7 +2427,7 @@
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2531,7 +2562,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2664,7 +2695,7 @@
       <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2797,7 +2828,7 @@
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2930,7 +2961,7 @@
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3069,7 +3100,7 @@
       <c r="BB14"/>
       <c r="BC14"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3202,7 +3233,7 @@
       <c r="AZ15" s="5"/>
       <c r="BA15" s="5"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>

--- a/Excel Data/DevopsTC_customerCorporate.xlsx
+++ b/Excel Data/DevopsTC_customerCorporate.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="previous" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'new sheet'!$V$1:$V$34</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="250">
   <si>
     <t>SECTOR</t>
   </si>
@@ -747,13 +752,40 @@
   </si>
   <si>
     <t>ID.NUMBER</t>
+  </si>
+  <si>
+    <t>5(8)/MOD/8/1998</t>
+  </si>
+  <si>
+    <t>015638/20051201</t>
+  </si>
+  <si>
+    <t>4093-2019-25</t>
+  </si>
+  <si>
+    <t>2015/16/0611</t>
+  </si>
+  <si>
+    <t>4093-2019-22</t>
+  </si>
+  <si>
+    <t>16443/20060503</t>
+  </si>
+  <si>
+    <t>4093-2019-21</t>
+  </si>
+  <si>
+    <t>4093-2019-23</t>
+  </si>
+  <si>
+    <t>015638/20051214</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,8 +814,135 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,8 +967,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -817,12 +1149,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -833,10 +1313,52 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1114,52 +1636,5126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD37"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="91" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="98" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="50" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="205.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>118463</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1125</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="6">
+        <v>30100000100</v>
+      </c>
+      <c r="P2" s="6">
+        <v>30041000999</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>95</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="6">
+        <v>20140724</v>
+      </c>
+      <c r="V2" s="6">
+        <v>20</v>
+      </c>
+      <c r="W2" s="6">
+        <v>134</v>
+      </c>
+      <c r="X2" s="10">
+        <v>1001</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>1181</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX2" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ2" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD2" s="6"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>118463</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1124</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="10">
+        <v>30100000200</v>
+      </c>
+      <c r="P3" s="10">
+        <v>30042700089</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>95</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="6">
+        <v>20091119</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="6">
+        <v>21</v>
+      </c>
+      <c r="W3" s="6">
+        <v>133</v>
+      </c>
+      <c r="X3" s="10">
+        <v>1002</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>1191</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="6">
+        <v>3.4547521345475199E+23</v>
+      </c>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ3" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="6">
+        <v>11</v>
+      </c>
+      <c r="BC3" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD3" s="6">
+        <v>42309978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>118463</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1125</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="10">
+        <v>42169000000</v>
+      </c>
+      <c r="P4" s="10">
+        <v>42169691000</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="6">
+        <v>20140724</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="6">
+        <v>11</v>
+      </c>
+      <c r="W4" s="6">
+        <v>134</v>
+      </c>
+      <c r="X4" s="10">
+        <v>1005</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>1101</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD4" s="6"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>118464</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1112</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="O5" s="10">
+        <v>41959000000</v>
+      </c>
+      <c r="P5" s="10">
+        <v>41959000000</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>8</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="6">
+        <v>20161229</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="10">
+        <v>14</v>
+      </c>
+      <c r="W5" s="6">
+        <v>126</v>
+      </c>
+      <c r="X5" s="10">
+        <v>1006</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>1131</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="6">
+        <v>3.3321463400332801E+20</v>
+      </c>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>3.3321463400332801E+20</v>
+      </c>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD5" s="6"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>118465</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="10">
+        <v>42171000000</v>
+      </c>
+      <c r="P6" s="10">
+        <v>42171000000</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>16</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="10">
+        <v>15</v>
+      </c>
+      <c r="W6" s="6">
+        <v>124</v>
+      </c>
+      <c r="X6" s="10">
+        <v>1007</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>1141</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD6" s="6"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>118466</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1120</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5">
+        <v>89746</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" s="10">
+        <v>30100000700</v>
+      </c>
+      <c r="P7" s="10">
+        <v>30061000006</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>107</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="5">
+        <v>20140926</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6">
+        <v>25</v>
+      </c>
+      <c r="W7" s="5">
+        <v>127</v>
+      </c>
+      <c r="X7" s="10">
+        <v>1007</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>1221</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>66</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR7" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ7" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA7" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD7" s="6"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>118468</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1121</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="10">
+        <v>20100000000</v>
+      </c>
+      <c r="P8" s="10">
+        <v>20030000068</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>111</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="5">
+        <v>20060518</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6">
+        <v>28</v>
+      </c>
+      <c r="W8" s="5">
+        <v>128</v>
+      </c>
+      <c r="X8" s="10">
+        <v>1177</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>1261</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>64</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR8" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY8" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ8" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD8" s="6"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>118469</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="10">
+        <v>10200000200</v>
+      </c>
+      <c r="P9" s="10">
+        <v>10225000284</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>109</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6">
+        <v>38</v>
+      </c>
+      <c r="W9" s="6">
+        <v>124</v>
+      </c>
+      <c r="X9" s="10">
+        <v>1068</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>1311</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR9" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD9" s="6"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>118470</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="10">
+        <v>10100000000</v>
+      </c>
+      <c r="P10" s="10">
+        <v>10110000164</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>94</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6">
+        <v>26</v>
+      </c>
+      <c r="W10" s="6">
+        <v>124</v>
+      </c>
+      <c r="X10" s="10">
+        <v>6007</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>1241</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR10" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD10" s="6"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>118471</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="10">
+        <v>42695000000</v>
+      </c>
+      <c r="P11" s="10">
+        <v>42695000000</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>110</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6">
+        <v>16</v>
+      </c>
+      <c r="W11" s="6">
+        <v>124</v>
+      </c>
+      <c r="X11" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>1151</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR11" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD11" s="6"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6">
+        <v>118473</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H12" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P12" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6">
+        <v>11</v>
+      </c>
+      <c r="W12" s="6">
+        <v>124</v>
+      </c>
+      <c r="X12" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR12" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD12" s="6"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
+        <v>118474</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P13" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6">
+        <v>11</v>
+      </c>
+      <c r="W13" s="6">
+        <v>124</v>
+      </c>
+      <c r="X13" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR13" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD13" s="6"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6">
+        <v>118475</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P14" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6">
+        <v>11</v>
+      </c>
+      <c r="W14" s="6">
+        <v>124</v>
+      </c>
+      <c r="X14" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR14" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD14" s="6"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
+        <v>118476</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P15" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6">
+        <v>11</v>
+      </c>
+      <c r="W15" s="6">
+        <v>124</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR15" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD15" s="6"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6">
+        <v>118477</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P16" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="6">
+        <v>11</v>
+      </c>
+      <c r="W16" s="6">
+        <v>124</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR16" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD16" s="6"/>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6">
+        <v>118478</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P17" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" s="6">
+        <v>11</v>
+      </c>
+      <c r="W17" s="6">
+        <v>124</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR17" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD17" s="6"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6">
+        <v>118479</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P18" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U18" s="5"/>
+      <c r="V18" s="6">
+        <v>11</v>
+      </c>
+      <c r="W18" s="6">
+        <v>124</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR18" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD18" s="6"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6">
+        <v>118480</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P19" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U19" s="5"/>
+      <c r="V19" s="6">
+        <v>11</v>
+      </c>
+      <c r="W19" s="6">
+        <v>124</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR19" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD19" s="6"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6">
+        <v>118481</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P20" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U20" s="5"/>
+      <c r="V20" s="6">
+        <v>11</v>
+      </c>
+      <c r="W20" s="6">
+        <v>124</v>
+      </c>
+      <c r="X20" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR20" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD20" s="6"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4">
+        <v>118482</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1127</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" s="6">
+        <v>30100000700</v>
+      </c>
+      <c r="P21" s="6">
+        <v>30062000999</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="T21" s="6">
+        <v>20171030</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6">
+        <v>25</v>
+      </c>
+      <c r="W21" s="6">
+        <v>138</v>
+      </c>
+      <c r="X21" s="6">
+        <v>1001</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR21" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD21" s="6"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4">
+        <v>118482</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1128</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="6">
+        <v>9011301</v>
+      </c>
+      <c r="H22" s="6">
+        <v>20990101</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" s="6">
+        <v>10100000000</v>
+      </c>
+      <c r="P22" s="6">
+        <v>10110000034</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="6">
+        <v>20080414</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6">
+        <v>37</v>
+      </c>
+      <c r="W22" s="6">
+        <v>152</v>
+      </c>
+      <c r="X22" s="6">
+        <v>1001</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6">
+        <v>5.1910641705191004E+18</v>
+      </c>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6">
+        <v>3.4668888440300798E+20</v>
+      </c>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR22" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU22" s="6">
+        <v>5.1910641705191004E+18</v>
+      </c>
+      <c r="AV22" s="6">
+        <v>3.4668888440300798E+20</v>
+      </c>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ22" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD22" s="6"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6">
+        <v>118502</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1111</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4210184690095</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="6">
+        <v>42696000000</v>
+      </c>
+      <c r="P23" s="6">
+        <v>42696000000</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="6">
+        <v>20210402</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6">
+        <v>12</v>
+      </c>
+      <c r="W23" s="6">
+        <v>125</v>
+      </c>
+      <c r="X23" s="6">
+        <v>1150</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH23" s="6">
+        <v>4210184690095</v>
+      </c>
+      <c r="AI23" s="6">
+        <v>3313006773</v>
+      </c>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR23" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD23" s="6"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6">
+        <v>118503</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="6">
+        <v>41962000000</v>
+      </c>
+      <c r="P24" s="6">
+        <v>41962620100</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="6">
+        <v>20200226</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6">
+        <v>11</v>
+      </c>
+      <c r="W24" s="6">
+        <v>124</v>
+      </c>
+      <c r="X24" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6">
+        <v>3218668002</v>
+      </c>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR24" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6">
+        <v>3.2186680020300798E+20</v>
+      </c>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="6"/>
+      <c r="BA24" s="6"/>
+      <c r="BB24" s="6"/>
+      <c r="BC24" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD24" s="6"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6">
+        <v>118504</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1120</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="6">
+        <v>69895</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6">
+        <v>41541000000</v>
+      </c>
+      <c r="P25" s="6">
+        <v>41541410020</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>1</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="6">
+        <v>20090703</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6">
+        <v>14</v>
+      </c>
+      <c r="W25" s="6">
+        <v>127</v>
+      </c>
+      <c r="X25" s="6">
+        <v>1001</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>64</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR25" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY25" s="6"/>
+      <c r="AZ25" s="6"/>
+      <c r="BA25" s="6"/>
+      <c r="BB25" s="6"/>
+      <c r="BC25" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD25" s="6"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>28</v>
+      </c>
+      <c r="B26" s="6">
+        <v>118505</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1121</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6">
+        <v>41213000000</v>
+      </c>
+      <c r="P26" s="6">
+        <v>41213131120</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="6">
+        <v>19920330</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6">
+        <v>15</v>
+      </c>
+      <c r="W26" s="6">
+        <v>128</v>
+      </c>
+      <c r="X26" s="6">
+        <v>1143</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR26" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ26" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD26" s="6"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6">
+        <v>118506</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1130</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="6">
+        <v>39018</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6">
+        <v>20100000000</v>
+      </c>
+      <c r="P27" s="6">
+        <v>20030000192</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>1</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="6">
+        <v>20130101</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6">
+        <v>28</v>
+      </c>
+      <c r="W27" s="6">
+        <v>141</v>
+      </c>
+      <c r="X27" s="6">
+        <v>1001</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>115</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR27" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ27" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA27" s="6"/>
+      <c r="BB27" s="6"/>
+      <c r="BC27" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD27" s="6"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6">
+        <v>118507</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1128</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="6">
+        <v>9011301</v>
+      </c>
+      <c r="H28" s="6">
+        <v>20990101</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" s="6">
+        <v>10100000000</v>
+      </c>
+      <c r="P28" s="6">
+        <v>10110000034</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>1</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="6">
+        <v>20080414</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6">
+        <v>37</v>
+      </c>
+      <c r="W28" s="6">
+        <v>152</v>
+      </c>
+      <c r="X28" s="6">
+        <v>1001</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6">
+        <v>5.1910641705191004E+18</v>
+      </c>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6">
+        <v>3.4668888440300798E+20</v>
+      </c>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR28" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU28" s="6">
+        <v>5.1910641705191004E+18</v>
+      </c>
+      <c r="AV28" s="6">
+        <v>3.4668888440300798E+20</v>
+      </c>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ28" s="6">
+        <v>19980101</v>
+      </c>
+      <c r="BA28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD28" s="6"/>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6">
+        <v>118508</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1129</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="6">
+        <v>10200000400</v>
+      </c>
+      <c r="P29" s="6">
+        <v>10222000009</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="6">
+        <v>19771117</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6">
+        <v>38</v>
+      </c>
+      <c r="W29" s="6">
+        <v>153</v>
+      </c>
+      <c r="X29" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK29" s="6">
+        <v>812470501</v>
+      </c>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6">
+        <v>3337804954</v>
+      </c>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR29" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV29" s="6">
+        <v>3337804954</v>
+      </c>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" s="6"/>
+      <c r="BC29" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD29" s="6"/>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6">
+        <v>118509</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1170</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O30" s="6">
+        <v>10100000000</v>
+      </c>
+      <c r="P30" s="6">
+        <v>10110000066</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>1</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="6">
+        <v>19470814</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6">
+        <v>26</v>
+      </c>
+      <c r="W30" s="6">
+        <v>139</v>
+      </c>
+      <c r="X30" s="6">
+        <v>6004</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6">
+        <v>3215442460</v>
+      </c>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR30" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ30" s="6">
+        <v>19770128</v>
+      </c>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD30" s="6"/>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>33</v>
+      </c>
+      <c r="B31" s="6">
+        <v>118510</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1122</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="6">
+        <v>90169</v>
+      </c>
+      <c r="H31" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6">
+        <v>50000000000</v>
+      </c>
+      <c r="P31" s="6">
+        <v>50200000000</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>1</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="6">
+        <v>20141010</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6">
+        <v>16</v>
+      </c>
+      <c r="W31" s="6">
+        <v>129</v>
+      </c>
+      <c r="X31" s="6">
+        <v>1150</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK31" s="6">
+        <v>4235310471</v>
+      </c>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR31" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS31" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX31" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD31" s="6"/>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>34</v>
+      </c>
+      <c r="B32" s="9">
+        <v>118511</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1127</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="6">
+        <v>20491231</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="O32" s="6">
+        <v>30100000700</v>
+      </c>
+      <c r="P32" s="6">
+        <v>30062000999</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>1</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="T32" s="6">
+        <v>20171030</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6">
+        <v>25</v>
+      </c>
+      <c r="W32" s="6">
+        <v>138</v>
+      </c>
+      <c r="X32" s="6">
+        <v>1001</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>1101</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD32" s="6"/>
+    </row>
+    <row r="33" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4">
+        <v>118512</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3002</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="6"/>
+      <c r="BA33" s="6"/>
+      <c r="BB33" s="6"/>
+      <c r="BC33" s="6"/>
+      <c r="BD33" s="6"/>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>36</v>
+      </c>
+      <c r="B34" s="6">
+        <v>118512</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3001</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="6">
+        <v>44545</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6">
+        <v>700000000</v>
+      </c>
+      <c r="P34" s="6">
+        <v>701000000</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>101</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="6">
+        <v>20100705</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6">
+        <v>23</v>
+      </c>
+      <c r="W34" s="6">
+        <v>136</v>
+      </c>
+      <c r="X34" s="6">
+        <v>6004</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>505</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>70</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR34" s="6">
+        <v>5487937597375850</v>
+      </c>
+      <c r="AS34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU34" s="6"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="6">
+        <v>20400101</v>
+      </c>
+      <c r="AY34" s="6"/>
+      <c r="AZ34" s="6"/>
+      <c r="BA34" s="6"/>
+      <c r="BB34" s="6"/>
+      <c r="BC34" s="6">
+        <v>31</v>
+      </c>
+      <c r="BD34" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="V1:V34">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="AO28" r:id="rId1"/>
+    <hyperlink ref="AO22" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>95</v>
+      </c>
+      <c r="C2" s="6">
+        <v>30100000100</v>
+      </c>
+      <c r="D2" s="6">
+        <v>30041000999</v>
+      </c>
+      <c r="E2">
+        <v>1181</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>30100000200</v>
+      </c>
+      <c r="D3">
+        <v>30042700089</v>
+      </c>
+      <c r="E3">
+        <v>1191</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>42169000000</v>
+      </c>
+      <c r="D4">
+        <v>42169691000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1101</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>42696000000</v>
+      </c>
+      <c r="D5">
+        <v>42169691000</v>
+      </c>
+      <c r="E5">
+        <v>1111</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>42169000000</v>
+      </c>
+      <c r="D6">
+        <v>42169691000</v>
+      </c>
+      <c r="E6">
+        <v>1121</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>41959000000</v>
+      </c>
+      <c r="D7">
+        <v>41959000000</v>
+      </c>
+      <c r="E7">
+        <v>1131</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>42171000000</v>
+      </c>
+      <c r="D8">
+        <v>42171000000</v>
+      </c>
+      <c r="E8">
+        <v>1141</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>30100000700</v>
+      </c>
+      <c r="D9">
+        <v>30061000006</v>
+      </c>
+      <c r="E9">
+        <v>1221</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>108</v>
+      </c>
+      <c r="C10">
+        <v>10100000000</v>
+      </c>
+      <c r="D10">
+        <v>10110000007</v>
+      </c>
+      <c r="E10">
+        <v>1301</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>20100000000</v>
+      </c>
+      <c r="D11">
+        <v>20030000068</v>
+      </c>
+      <c r="E11">
+        <v>1261</v>
+      </c>
+      <c r="F11">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>109</v>
+      </c>
+      <c r="C12">
+        <v>10200000200</v>
+      </c>
+      <c r="D12">
+        <v>10225000284</v>
+      </c>
+      <c r="E12">
+        <v>1311</v>
+      </c>
+      <c r="F12">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>10100000000</v>
+      </c>
+      <c r="D13">
+        <v>10110000164</v>
+      </c>
+      <c r="E13">
+        <v>1241</v>
+      </c>
+      <c r="F13">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <v>42695000000</v>
+      </c>
+      <c r="D14">
+        <v>42695000000</v>
+      </c>
+      <c r="E14">
+        <v>1151</v>
+      </c>
+      <c r="F14">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>10100000000</v>
+      </c>
+      <c r="D15">
+        <v>10110000001</v>
+      </c>
+      <c r="E15">
+        <v>1201</v>
+      </c>
+      <c r="F15">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD37"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="25" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="27" max="28" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="9.140625" style="1"/>
-    <col min="34" max="34" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="1"/>
-    <col min="37" max="37" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="43" width="9.140625" style="1"/>
-    <col min="44" max="44" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="91" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="98" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.140625" style="1"/>
-    <col min="47" max="47" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" style="1"/>
-    <col min="52" max="52" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="1"/>
+    <col min="46" max="46" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="205.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.140625" style="1"/>
+    <col min="55" max="55" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
@@ -1616,6 +7212,12 @@
       <c r="BA3" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="BB3" s="1">
+        <v>12</v>
+      </c>
+      <c r="BC3" s="6">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -1749,6 +7351,12 @@
       <c r="AY4" s="5"/>
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
+      <c r="BB4" s="1">
+        <v>13</v>
+      </c>
+      <c r="BC4" s="6">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -1876,6 +7484,12 @@
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
+      <c r="BB5" s="6">
+        <v>14</v>
+      </c>
+      <c r="BC5" s="6">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -2021,6 +7635,12 @@
       <c r="BA6" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="BB6" s="6">
+        <v>15</v>
+      </c>
+      <c r="BC6" s="6">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -2154,6 +7774,12 @@
       <c r="AY7" s="5"/>
       <c r="AZ7" s="5"/>
       <c r="BA7" s="5"/>
+      <c r="BB7" s="6">
+        <v>16</v>
+      </c>
+      <c r="BC7" s="6">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -2293,6 +7919,12 @@
       <c r="BA8" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="BB8" s="6">
+        <v>17</v>
+      </c>
+      <c r="BC8" s="6">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -2426,6 +8058,12 @@
       <c r="AY9" s="5"/>
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
+      <c r="BB9" s="6">
+        <v>18</v>
+      </c>
+      <c r="BC9" s="6">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -2561,6 +8199,12 @@
       <c r="BA10" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="BB10" s="6">
+        <v>19</v>
+      </c>
+      <c r="BC10" s="6">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -2694,6 +8338,12 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
+      <c r="BB11" s="6">
+        <v>20</v>
+      </c>
+      <c r="BC11" s="6">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
